--- a/data/trans_orig/P63-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P63-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>80221</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>71027</v>
+        <v>71575</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>87694</v>
+        <v>88530</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.745468916035985</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6600281212624424</v>
+        <v>0.6651216182350366</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8149052533368651</v>
+        <v>0.8226744635445061</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>77</v>
@@ -765,19 +765,19 @@
         <v>79074</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>66740</v>
+        <v>65697</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>92136</v>
+        <v>90360</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5350766053635085</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.451616076102606</v>
+        <v>0.4445595962012536</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6234598906561796</v>
+        <v>0.6114460483716594</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>161</v>
@@ -786,19 +786,19 @@
         <v>159295</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>143060</v>
+        <v>143337</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>173834</v>
+        <v>174835</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6237271038558639</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.560159844336463</v>
+        <v>0.5612433718457942</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6806559064296808</v>
+        <v>0.684576323465623</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>27391</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>19918</v>
+        <v>19082</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>36585</v>
+        <v>36037</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2545310839640151</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1850947466631349</v>
+        <v>0.1773255364554941</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3399718787375576</v>
+        <v>0.3348783817649641</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>68</v>
@@ -836,19 +836,19 @@
         <v>68707</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>55645</v>
+        <v>57421</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>81041</v>
+        <v>82084</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4649233946364914</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3765401093438204</v>
+        <v>0.3885539516283406</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.548383923897394</v>
+        <v>0.5554404037987464</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>97</v>
@@ -857,19 +857,19 @@
         <v>96097</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>81558</v>
+        <v>80557</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>112332</v>
+        <v>112055</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3762728961441361</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3193440935703191</v>
+        <v>0.3154236765343769</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4398401556635369</v>
+        <v>0.4387566281542057</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>185651</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>173662</v>
+        <v>172328</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>195842</v>
+        <v>195462</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.83403370305972</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7801715394410672</v>
+        <v>0.7741789230520503</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8798160322617636</v>
+        <v>0.878110462508089</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>140</v>
@@ -982,19 +982,19 @@
         <v>142476</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>123089</v>
+        <v>123002</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>161548</v>
+        <v>160849</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3848995997972143</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3325233455532489</v>
+        <v>0.3322894044388435</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4364208166629788</v>
+        <v>0.4345329644000472</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>317</v>
@@ -1003,19 +1003,19 @@
         <v>328127</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>303969</v>
+        <v>303034</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>352069</v>
+        <v>349768</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.553559229523365</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.512803521926791</v>
+        <v>0.5112264155483168</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5939502150802133</v>
+        <v>0.5900680288792045</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>36943</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>26752</v>
+        <v>27132</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>48932</v>
+        <v>50266</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.16596629694028</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1201839677382363</v>
+        <v>0.121889537491911</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2198284605589326</v>
+        <v>0.2258210769479497</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>227</v>
@@ -1053,19 +1053,19 @@
         <v>227689</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>208617</v>
+        <v>209316</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>247076</v>
+        <v>247163</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6151004002027857</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5635791833370212</v>
+        <v>0.5654670355999528</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6674766544467511</v>
+        <v>0.6677105955611565</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>265</v>
@@ -1074,19 +1074,19 @@
         <v>264632</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>240690</v>
+        <v>242991</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>288790</v>
+        <v>289725</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4464407704766349</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4060497849197866</v>
+        <v>0.4099319711207954</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.487196478073209</v>
+        <v>0.4887735844516833</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>98765</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>86817</v>
+        <v>87325</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>108836</v>
+        <v>109700</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6899726891816063</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6065043713052595</v>
+        <v>0.6100533371162448</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7603304937033903</v>
+        <v>0.7663663115539888</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>105</v>
@@ -1199,19 +1199,19 @@
         <v>104135</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>88025</v>
+        <v>89481</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>118251</v>
+        <v>121105</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4323720579592178</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3654823717258922</v>
+        <v>0.3715271223525691</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4909812573979238</v>
+        <v>0.5028306768434515</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>205</v>
@@ -1220,19 +1220,19 @@
         <v>202899</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>182185</v>
+        <v>183863</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>220641</v>
+        <v>222855</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5284000311745654</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4744555561313571</v>
+        <v>0.4788255753585486</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5746030488924014</v>
+        <v>0.5803701270260319</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>44378</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>34307</v>
+        <v>33443</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>56326</v>
+        <v>55818</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3100273108183938</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2396695062966096</v>
+        <v>0.2336336884460111</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3934956286947406</v>
+        <v>0.3899466628837553</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>136</v>
@@ -1270,19 +1270,19 @@
         <v>136711</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>122595</v>
+        <v>119741</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>152821</v>
+        <v>151365</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5676279420407823</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5090187426020761</v>
+        <v>0.4971693231565484</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.634517628274108</v>
+        <v>0.6284728776474309</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>179</v>
@@ -1291,19 +1291,19 @@
         <v>181089</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>163347</v>
+        <v>161133</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>201803</v>
+        <v>200125</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4715999688254346</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4253969511075985</v>
+        <v>0.4196298729739681</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5255444438686429</v>
+        <v>0.5211744246414513</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>95972</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>86126</v>
+        <v>85799</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>105020</v>
+        <v>105912</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.7154340036581331</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6420370479706614</v>
+        <v>0.6395966429473166</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7828820027033748</v>
+        <v>0.7895322246700049</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>118</v>
@@ -1416,19 +1416,19 @@
         <v>112448</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>98328</v>
+        <v>97112</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>126808</v>
+        <v>126524</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4777460238132896</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4177566163094005</v>
+        <v>0.4125929191071926</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5387594388154432</v>
+        <v>0.5375526201963948</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>219</v>
@@ -1437,19 +1437,19 @@
         <v>208419</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>190441</v>
+        <v>190203</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>224707</v>
+        <v>227438</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.564033450800138</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.51538035551981</v>
+        <v>0.514737095812927</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6081143988807738</v>
+        <v>0.6155036782293858</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>38173</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>29125</v>
+        <v>28233</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>48019</v>
+        <v>48346</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2845659963418669</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2171179972966254</v>
+        <v>0.2104677753299952</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3579629520293386</v>
+        <v>0.3604033570526835</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>129</v>
@@ -1487,19 +1487,19 @@
         <v>122923</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>108563</v>
+        <v>108847</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>137043</v>
+        <v>138259</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5222539761867104</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4612405611845568</v>
+        <v>0.4624473798036053</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5822433836905995</v>
+        <v>0.5874070808928075</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>170</v>
@@ -1508,19 +1508,19 @@
         <v>161096</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>144808</v>
+        <v>142077</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>179074</v>
+        <v>179312</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4359665491998619</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3918856011192262</v>
+        <v>0.3844963217706142</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.48461964448019</v>
+        <v>0.485262904187073</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>70655</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>62109</v>
+        <v>62606</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>77714</v>
+        <v>78704</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7905194462205369</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6949062043871103</v>
+        <v>0.7004601779292109</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8695003405102727</v>
+        <v>0.8805715117732703</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>79</v>
@@ -1633,19 +1633,19 @@
         <v>85274</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>73167</v>
+        <v>72324</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>98730</v>
+        <v>97921</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5423077017877707</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4653146282401591</v>
+        <v>0.4599545901681221</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6278862787929815</v>
+        <v>0.6227386506694532</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>154</v>
@@ -1654,19 +1654,19 @@
         <v>155929</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>141625</v>
+        <v>141555</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>171130</v>
+        <v>171705</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6322627223760406</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5742653659893965</v>
+        <v>0.5739816841011023</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6939013725782558</v>
+        <v>0.6962340385482236</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>18723</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>11664</v>
+        <v>10674</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>27269</v>
+        <v>26772</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2094805537794631</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1304996594897271</v>
+        <v>0.1194284882267297</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3050937956128885</v>
+        <v>0.2995398220707891</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>72</v>
@@ -1704,19 +1704,19 @@
         <v>71968</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>58512</v>
+        <v>59321</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>84075</v>
+        <v>84918</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4576922982122293</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3721137212070185</v>
+        <v>0.3772613493305468</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5346853717598409</v>
+        <v>0.5400454098318778</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>91</v>
@@ -1725,19 +1725,19 @@
         <v>90691</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>75490</v>
+        <v>74915</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>104995</v>
+        <v>105065</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3677372776239594</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3060986274217444</v>
+        <v>0.3037659614517764</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4257346340106035</v>
+        <v>0.4260183158988977</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>92534</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>83373</v>
+        <v>83611</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>100111</v>
+        <v>99964</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.8136082421820929</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.7330595528537395</v>
+        <v>0.735155552169396</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.8802283744544567</v>
+        <v>0.8789353635642005</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>80</v>
@@ -1850,19 +1850,19 @@
         <v>82206</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>69223</v>
+        <v>69209</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>95456</v>
+        <v>97045</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4208657235240961</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3543953677544536</v>
+        <v>0.3543240997043559</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4887003275809945</v>
+        <v>0.4968323892165079</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>174</v>
@@ -1871,19 +1871,19 @@
         <v>174741</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>157476</v>
+        <v>157935</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>192678</v>
+        <v>192509</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5653941416703656</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5095330636983637</v>
+        <v>0.5110158008226865</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6234309539276777</v>
+        <v>0.6228868105148704</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>21199</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>13622</v>
+        <v>13769</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>30360</v>
+        <v>30122</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1863917578179071</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1197716255455432</v>
+        <v>0.1210646364357995</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2669404471462603</v>
+        <v>0.264844447830604</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>110</v>
@@ -1921,19 +1921,19 @@
         <v>113121</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>99871</v>
+        <v>98282</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>126104</v>
+        <v>126118</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.579134276475904</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5112996724190055</v>
+        <v>0.5031676107834919</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6456046322455464</v>
+        <v>0.6456759002956441</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>131</v>
@@ -1942,19 +1942,19 @@
         <v>134319</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>116382</v>
+        <v>116551</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>151584</v>
+        <v>151125</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4346058583296344</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3765690460723224</v>
+        <v>0.3771131894851297</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4904669363016363</v>
+        <v>0.4889841991773134</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>217923</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>204311</v>
+        <v>203537</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>230845</v>
+        <v>230854</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7831463740277904</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7342292076032184</v>
+        <v>0.731447995313211</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8295829340872199</v>
+        <v>0.8296161759394415</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>209</v>
@@ -2067,19 +2067,19 @@
         <v>211260</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>189064</v>
+        <v>190060</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>230470</v>
+        <v>232827</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4615966473899913</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4131002093551204</v>
+        <v>0.415275346158616</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5035692839015169</v>
+        <v>0.5087207845835414</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>426</v>
@@ -2088,19 +2088,19 @@
         <v>429182</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>405931</v>
+        <v>403504</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>453597</v>
+        <v>455367</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5831779898551989</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5515842762132428</v>
+        <v>0.5482854684951292</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6163530233259542</v>
+        <v>0.6187578161627394</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>60343</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>47421</v>
+        <v>47412</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>73955</v>
+        <v>74729</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2168536259722096</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1704170659127796</v>
+        <v>0.1703838240605585</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2657707923967814</v>
+        <v>0.268552004686789</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>244</v>
@@ -2138,19 +2138,19 @@
         <v>246412</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>227202</v>
+        <v>224845</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>268608</v>
+        <v>267612</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.5384033526100087</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.496430716098483</v>
+        <v>0.4912792154164587</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.5868997906448796</v>
+        <v>0.5847246538413841</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>307</v>
@@ -2159,19 +2159,19 @@
         <v>306755</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>282340</v>
+        <v>280570</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>330006</v>
+        <v>332433</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.4168220101448011</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3836469766740457</v>
+        <v>0.3812421838372605</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.4484157237867573</v>
+        <v>0.4517145315048707</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>223494</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>209424</v>
+        <v>210042</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>234491</v>
+        <v>235499</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.8140525788386911</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.762805068325729</v>
+        <v>0.7650535435895532</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.8541086056308735</v>
+        <v>0.8577790967435505</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>265</v>
@@ -2284,19 +2284,19 @@
         <v>283302</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>261659</v>
+        <v>259981</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>305808</v>
+        <v>305986</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.5202672699605636</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4805215667889134</v>
+        <v>0.4774406547453015</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5615988045691239</v>
+        <v>0.5619258641360575</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>493</v>
@@ -2305,19 +2305,19 @@
         <v>506796</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>477054</v>
+        <v>478540</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>534443</v>
+        <v>537637</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.6187407904895768</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.5824287670342533</v>
+        <v>0.5842432223895861</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.6524937699382898</v>
+        <v>0.656393131504768</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>51051</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>40054</v>
+        <v>39046</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>65121</v>
+        <v>64503</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1859474211613089</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1458913943691265</v>
+        <v>0.1422209032564495</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.237194931674271</v>
+        <v>0.2349464564104468</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>252</v>
@@ -2355,19 +2355,19 @@
         <v>261229</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>238723</v>
+        <v>238545</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>282872</v>
+        <v>284550</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4797327300394364</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4384011954308761</v>
+        <v>0.4380741358639425</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5194784332110866</v>
+        <v>0.5225593452546987</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>304</v>
@@ -2376,19 +2376,19 @@
         <v>312281</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>284634</v>
+        <v>281440</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>342023</v>
+        <v>340537</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3812592095104232</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3475062300617102</v>
+        <v>0.3436068684952321</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4175712329657467</v>
+        <v>0.4157567776104139</v>
       </c>
     </row>
     <row r="27">
@@ -2480,19 +2480,19 @@
         <v>1065214</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1037357</v>
+        <v>1034523</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1092443</v>
+        <v>1094539</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.781284124810063</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.7608521710288914</v>
+        <v>0.7587732292611957</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.8012547602265442</v>
+        <v>0.8027923231670065</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1073</v>
@@ -2501,19 +2501,19 @@
         <v>1100174</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1052515</v>
+        <v>1058828</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1145819</v>
+        <v>1149791</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.4683717063662047</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.448081777224557</v>
+        <v>0.4507694168580195</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.4878036895656022</v>
+        <v>0.4894946516597855</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2149</v>
@@ -2522,19 +2522,19 @@
         <v>2165389</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2109724</v>
+        <v>2103433</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>2226313</v>
+        <v>2222461</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.5832934211907295</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.5682990569731374</v>
+        <v>0.5666042874187284</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5997046536533747</v>
+        <v>0.5986670622567563</v>
       </c>
     </row>
     <row r="29">
@@ -2551,19 +2551,19 @@
         <v>298201</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>270972</v>
+        <v>268876</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>326058</v>
+        <v>328892</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.218715875189937</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1987452397734558</v>
+        <v>0.1972076768329936</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2391478289711087</v>
+        <v>0.2412267707388046</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1238</v>
@@ -2572,19 +2572,19 @@
         <v>1248760</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1203115</v>
+        <v>1199143</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1296419</v>
+        <v>1290106</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.5316282936337953</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.512196310434398</v>
+        <v>0.5105053483402145</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.551918222775443</v>
+        <v>0.5492305831419805</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1544</v>
@@ -2593,19 +2593,19 @@
         <v>1546960</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1486036</v>
+        <v>1489888</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1602625</v>
+        <v>1608916</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.4167065788092705</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.4002953463466253</v>
+        <v>0.4013329377432438</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.4317009430268626</v>
+        <v>0.4333957125812716</v>
       </c>
     </row>
     <row r="30">
@@ -2941,19 +2941,19 @@
         <v>155802</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>147664</v>
+        <v>148403</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>160963</v>
+        <v>161416</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9279581494152002</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8794849028487147</v>
+        <v>0.8838856686301685</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9586948433637592</v>
+        <v>0.9613929919530603</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>136</v>
@@ -2962,19 +2962,19 @@
         <v>153351</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>140275</v>
+        <v>138977</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>164017</v>
+        <v>164284</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7832567906644768</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7164661823185579</v>
+        <v>0.7098355825251251</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.837734260521925</v>
+        <v>0.8390953372951343</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>283</v>
@@ -2983,19 +2983,19 @@
         <v>309155</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>294218</v>
+        <v>292118</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>321471</v>
+        <v>321203</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8500592311542374</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8089892595682249</v>
+        <v>0.8032141843124349</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.883923867093581</v>
+        <v>0.883186649416892</v>
       </c>
     </row>
     <row r="5">
@@ -3012,19 +3012,19 @@
         <v>12096</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6935</v>
+        <v>6482</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>20234</v>
+        <v>19495</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.07204185058479987</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0413051566362406</v>
+        <v>0.03860700804693965</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1205150971512848</v>
+        <v>0.1161143313698312</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>38</v>
@@ -3033,19 +3033,19 @@
         <v>42436</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>31770</v>
+        <v>31503</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>55512</v>
+        <v>56810</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2167432093355232</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1622657394780749</v>
+        <v>0.1609046627048656</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.283533817681442</v>
+        <v>0.2901644174748746</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>51</v>
@@ -3054,19 +3054,19 @@
         <v>54531</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>42215</v>
+        <v>42483</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>69468</v>
+        <v>71568</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1499407688457625</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1160761329064192</v>
+        <v>0.1168133505831081</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1910107404317752</v>
+        <v>0.1967858156875653</v>
       </c>
     </row>
     <row r="6">
@@ -3158,19 +3158,19 @@
         <v>283915</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>270096</v>
+        <v>270193</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>295667</v>
+        <v>296675</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8597284744217414</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8178834062233373</v>
+        <v>0.8181780847551301</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8953144325078721</v>
+        <v>0.8983659191346464</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>152</v>
@@ -3179,19 +3179,19 @@
         <v>165469</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>144484</v>
+        <v>142372</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>185702</v>
+        <v>185186</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4147683200255413</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3621651200863256</v>
+        <v>0.3568713903067341</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.465483068456129</v>
+        <v>0.4641900806254826</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>417</v>
@@ -3200,19 +3200,19 @@
         <v>449384</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>423710</v>
+        <v>421662</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>474977</v>
+        <v>475291</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.6162853701744609</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.581076466491245</v>
+        <v>0.5782672285468632</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6513835035344937</v>
+        <v>0.6518133545611747</v>
       </c>
     </row>
     <row r="8">
@@ -3229,19 +3229,19 @@
         <v>46323</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>34571</v>
+        <v>33563</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>60142</v>
+        <v>60045</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1402715255782586</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1046855674921278</v>
+        <v>0.1016340808653536</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1821165937766627</v>
+        <v>0.1818219152448696</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>215</v>
@@ -3250,19 +3250,19 @@
         <v>233475</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>213242</v>
+        <v>213758</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>254460</v>
+        <v>256572</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5852316799744587</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5345169315438708</v>
+        <v>0.5358099193745174</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6378348799136739</v>
+        <v>0.6431286096932658</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>259</v>
@@ -3271,19 +3271,19 @@
         <v>279798</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>254205</v>
+        <v>253891</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>305472</v>
+        <v>307520</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.383714629825539</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3486164964655059</v>
+        <v>0.3481866454388254</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4189235335087548</v>
+        <v>0.4217327714531368</v>
       </c>
     </row>
     <row r="9">
@@ -3375,19 +3375,19 @@
         <v>151053</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>139314</v>
+        <v>139967</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>160360</v>
+        <v>159679</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8352599029630812</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7703521513764108</v>
+        <v>0.773960679594341</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8867256651354404</v>
+        <v>0.8829582003001551</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>130</v>
@@ -3396,19 +3396,19 @@
         <v>143603</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>127805</v>
+        <v>127023</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>160340</v>
+        <v>159664</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5574874549727079</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4961601959178778</v>
+        <v>0.4931227248849876</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6224638065499591</v>
+        <v>0.6198412201851178</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>275</v>
@@ -3417,19 +3417,19 @@
         <v>294655</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>274354</v>
+        <v>273391</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>312394</v>
+        <v>313170</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.672063123909672</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.625758211946659</v>
+        <v>0.6235624732632634</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7125217235557355</v>
+        <v>0.7142930136199679</v>
       </c>
     </row>
     <row r="11">
@@ -3446,19 +3446,19 @@
         <v>29792</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>20485</v>
+        <v>21166</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>41531</v>
+        <v>40878</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1647400970369188</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1132743348645596</v>
+        <v>0.1170417996998448</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2296478486235893</v>
+        <v>0.2260393204056589</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>108</v>
@@ -3467,19 +3467,19 @@
         <v>113986</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>97249</v>
+        <v>97925</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>129784</v>
+        <v>130566</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4425125450272921</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3775361934500409</v>
+        <v>0.3801587798148823</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.503839804082122</v>
+        <v>0.5068772751150125</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>137</v>
@@ -3488,19 +3488,19 @@
         <v>143779</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>126040</v>
+        <v>125264</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>164080</v>
+        <v>165043</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.327936876090328</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2874782764442645</v>
+        <v>0.2857069863800319</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.374241788053341</v>
+        <v>0.3764375267367366</v>
       </c>
     </row>
     <row r="12">
@@ -3592,19 +3592,19 @@
         <v>204881</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>194356</v>
+        <v>194032</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>213279</v>
+        <v>213363</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.8895267701786504</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8438279538723312</v>
+        <v>0.842423329101999</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9259871468770726</v>
+        <v>0.9263526961808952</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>189</v>
@@ -3613,19 +3613,19 @@
         <v>196503</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>181317</v>
+        <v>179887</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>211268</v>
+        <v>211394</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6955423965676107</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6417918868985468</v>
+        <v>0.6367306490951988</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7478069824864951</v>
+        <v>0.7482537281615483</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>376</v>
@@ -3634,19 +3634,19 @@
         <v>401384</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>380611</v>
+        <v>381141</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>418938</v>
+        <v>419480</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.7826638931550748</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7421593720308829</v>
+        <v>0.7431932369755927</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.8168942127562109</v>
+        <v>0.817950024642581</v>
       </c>
     </row>
     <row r="14">
@@ -3663,19 +3663,19 @@
         <v>25445</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>17047</v>
+        <v>16963</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>35970</v>
+        <v>36294</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1104732298213495</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.07401285312292745</v>
+        <v>0.07364730381910509</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1561720461276688</v>
+        <v>0.1575766708980015</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>83</v>
@@ -3684,19 +3684,19 @@
         <v>86014</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>71249</v>
+        <v>71123</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>101200</v>
+        <v>102630</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3044576034323892</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2521930175135048</v>
+        <v>0.2517462718384516</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3582081131014531</v>
+        <v>0.3632693509048012</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>108</v>
@@ -3705,19 +3705,19 @@
         <v>111459</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>93905</v>
+        <v>93363</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>132232</v>
+        <v>131702</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2173361068449252</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1831057872437892</v>
+        <v>0.1820499753574192</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2578406279691172</v>
+        <v>0.2568067630244074</v>
       </c>
     </row>
     <row r="15">
@@ -3809,19 +3809,19 @@
         <v>112019</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>103890</v>
+        <v>104124</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>119026</v>
+        <v>118510</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8729527730449304</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8096046290208772</v>
+        <v>0.8114288844088553</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.927559389438513</v>
+        <v>0.9235338015970551</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>84</v>
@@ -3830,19 +3830,19 @@
         <v>90069</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>77717</v>
+        <v>76227</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>102983</v>
+        <v>102013</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5529778388907775</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4771424844269515</v>
+        <v>0.4679958572226244</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6322638739525507</v>
+        <v>0.6263053041635269</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>187</v>
@@ -3851,19 +3851,19 @@
         <v>202088</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>185989</v>
+        <v>184928</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>215823</v>
+        <v>217455</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6939793184810319</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6386938890850529</v>
+        <v>0.6350503613034921</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7411437608798634</v>
+        <v>0.7467497946251369</v>
       </c>
     </row>
     <row r="17">
@@ -3880,19 +3880,19 @@
         <v>16303</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>9296</v>
+        <v>9812</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>24432</v>
+        <v>24198</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1270472269550696</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.07244061056148701</v>
+        <v>0.07646619840294507</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1903953709791232</v>
+        <v>0.1885711155911449</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>73</v>
@@ -3901,19 +3901,19 @@
         <v>72811</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>59897</v>
+        <v>60867</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>85163</v>
+        <v>86653</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4470221611092226</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.367736126047449</v>
+        <v>0.3736946958364735</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5228575155730482</v>
+        <v>0.5320041427773765</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>89</v>
@@ -3922,19 +3922,19 @@
         <v>89114</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>75379</v>
+        <v>73747</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>105213</v>
+        <v>106274</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3060206815189681</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2588562391201367</v>
+        <v>0.2532502053748631</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3613061109149471</v>
+        <v>0.3649496386965079</v>
       </c>
     </row>
     <row r="18">
@@ -4026,19 +4026,19 @@
         <v>132817</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>122739</v>
+        <v>123592</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>140344</v>
+        <v>141219</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.8529494066535062</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.7882313551599734</v>
+        <v>0.7937096203559335</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.901289163144209</v>
+        <v>0.9069058448451424</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>121</v>
@@ -4047,19 +4047,19 @@
         <v>125560</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>111393</v>
+        <v>111416</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>140855</v>
+        <v>139511</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.5586912276125606</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4956540338101433</v>
+        <v>0.4957555364415137</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6267483685698204</v>
+        <v>0.6207681084854405</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>250</v>
@@ -4068,19 +4068,19 @@
         <v>258377</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>238503</v>
+        <v>237621</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>275211</v>
+        <v>276023</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.6791274048147193</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.6268894752401361</v>
+        <v>0.6245724770317579</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.7233753982387927</v>
+        <v>0.7255089474879473</v>
       </c>
     </row>
     <row r="20">
@@ -4097,19 +4097,19 @@
         <v>22898</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>15371</v>
+        <v>14496</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>32976</v>
+        <v>32123</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1470505933464938</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.09871083685579111</v>
+        <v>0.09309415515485783</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2117686448400266</v>
+        <v>0.2062903796440666</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>96</v>
@@ -4118,19 +4118,19 @@
         <v>99179</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>83884</v>
+        <v>85228</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>113346</v>
+        <v>113323</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4413087723874394</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3732516314301791</v>
+        <v>0.3792318915145594</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5043459661898566</v>
+        <v>0.5042444635584862</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>119</v>
@@ -4139,19 +4139,19 @@
         <v>122077</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>105243</v>
+        <v>104431</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>141951</v>
+        <v>142833</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3208725951852807</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2766246017612072</v>
+        <v>0.2744910525120527</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3731105247598639</v>
+        <v>0.3754275229682421</v>
       </c>
     </row>
     <row r="21">
@@ -4243,19 +4243,19 @@
         <v>340562</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>326962</v>
+        <v>326355</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>352698</v>
+        <v>352116</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8784974836567898</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8434146722646678</v>
+        <v>0.8418501012302815</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9098030682575552</v>
+        <v>0.9083028928343072</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>262</v>
@@ -4264,19 +4264,19 @@
         <v>293887</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>270260</v>
+        <v>270141</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>316823</v>
+        <v>317325</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5754389120753904</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5291763130769356</v>
+        <v>0.5289434596205081</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6203480904533265</v>
+        <v>0.6213308281498939</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>576</v>
@@ -4285,19 +4285,19 @@
         <v>634448</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>604783</v>
+        <v>606798</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>660779</v>
+        <v>662466</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.706212811247886</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6731925241769963</v>
+        <v>0.6754351694588731</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7355215058201786</v>
+        <v>0.7373998567060366</v>
       </c>
     </row>
     <row r="23">
@@ -4314,19 +4314,19 @@
         <v>47102</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>34966</v>
+        <v>35548</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>60702</v>
+        <v>61309</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1215025163432102</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.09019693174244488</v>
+        <v>0.09169710716569278</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1565853277353322</v>
+        <v>0.1581498987697186</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>202</v>
@@ -4335,19 +4335,19 @@
         <v>216831</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>193895</v>
+        <v>193393</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>240458</v>
+        <v>240577</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.4245610879246096</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3796519095466736</v>
+        <v>0.3786691718501062</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.4708236869230645</v>
+        <v>0.4710565403794919</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>250</v>
@@ -4356,19 +4356,19 @@
         <v>263933</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>237602</v>
+        <v>235915</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>293598</v>
+        <v>291583</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2937871887521139</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2644784941798213</v>
+        <v>0.2626001432939635</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3268074758230037</v>
+        <v>0.324564830541127</v>
       </c>
     </row>
     <row r="24">
@@ -4460,19 +4460,19 @@
         <v>348052</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>330888</v>
+        <v>332961</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>361009</v>
+        <v>362140</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.8387302652008971</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.7973681834170919</v>
+        <v>0.8023645298514737</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.8699541439925592</v>
+        <v>0.8726788191953561</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>291</v>
@@ -4481,19 +4481,19 @@
         <v>317610</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>293356</v>
+        <v>291991</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>342408</v>
+        <v>341777</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.5649114656035502</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.5217716423081057</v>
+        <v>0.5193441054454211</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.6090176103329923</v>
+        <v>0.6078954224058929</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>602</v>
@@ -4502,19 +4502,19 @@
         <v>665662</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>633772</v>
+        <v>633538</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>692906</v>
+        <v>693663</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.6811900678159623</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.6485553721446438</v>
+        <v>0.6483167009980811</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.7090688575636707</v>
+        <v>0.7098435470468824</v>
       </c>
     </row>
     <row r="26">
@@ -4531,19 +4531,19 @@
         <v>66923</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>53966</v>
+        <v>52835</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>84087</v>
+        <v>82014</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1612697347991029</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1300458560074409</v>
+        <v>0.127321180804644</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2026318165829081</v>
+        <v>0.1976354701485264</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>229</v>
@@ -4552,19 +4552,19 @@
         <v>244620</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>219822</v>
+        <v>220453</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>268874</v>
+        <v>270239</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4350885343964498</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3909823896670075</v>
+        <v>0.3921045775941069</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4782283576918943</v>
+        <v>0.4806558945545783</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>296</v>
@@ -4573,19 +4573,19 @@
         <v>311543</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>284299</v>
+        <v>283542</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>343433</v>
+        <v>343667</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3188099321840377</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2909311424363293</v>
+        <v>0.2901564529531176</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3514446278553563</v>
+        <v>0.3516832990019186</v>
       </c>
     </row>
     <row r="27">
@@ -4677,19 +4677,19 @@
         <v>1729101</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1699307</v>
+        <v>1697208</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1757675</v>
+        <v>1757929</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.8662904640091189</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.8513636736693994</v>
+        <v>0.8503116801850114</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.8806059602522894</v>
+        <v>0.8807336335145337</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1365</v>
@@ -4698,19 +4698,19 @@
         <v>1486051</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1431285</v>
+        <v>1432556</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1538330</v>
+        <v>1537643</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.5725705905831617</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.5514691868879544</v>
+        <v>0.5519591081595822</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5927134570027677</v>
+        <v>0.5924486325884248</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2966</v>
@@ -4719,19 +4719,19 @@
         <v>3215153</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3151210</v>
+        <v>3150622</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>3276577</v>
+        <v>3281593</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.7002575081119743</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.6863308137548357</v>
+        <v>0.6862027320524801</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.7136356854723013</v>
+        <v>0.7147281407611003</v>
       </c>
     </row>
     <row r="29">
@@ -4748,19 +4748,19 @@
         <v>266882</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>238308</v>
+        <v>238054</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>296676</v>
+        <v>298775</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1337095359908811</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1193940397477106</v>
+        <v>0.1192663664854663</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1486363263306007</v>
+        <v>0.1496883198149886</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1044</v>
@@ -4769,19 +4769,19 @@
         <v>1109352</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1057073</v>
+        <v>1057760</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1164118</v>
+        <v>1162847</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.4274294094168382</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.4072865429972323</v>
+        <v>0.4075513674115749</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.4485308131120456</v>
+        <v>0.4480408918404177</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1309</v>
@@ -4790,19 +4790,19 @@
         <v>1376233</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1314809</v>
+        <v>1309793</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1440176</v>
+        <v>1440764</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2997424918880257</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2863643145276988</v>
+        <v>0.2852718592388998</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3136691862451643</v>
+        <v>0.31379726794752</v>
       </c>
     </row>
     <row r="30">
@@ -5138,19 +5138,19 @@
         <v>137963</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>127139</v>
+        <v>127950</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>145604</v>
+        <v>145741</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8754243716080099</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.806748247777426</v>
+        <v>0.8118919524706852</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9239103024351285</v>
+        <v>0.9247819965458861</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>126</v>
@@ -5159,19 +5159,19 @@
         <v>132681</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>117770</v>
+        <v>120500</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>144293</v>
+        <v>144392</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.706773912811585</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6273442989570187</v>
+        <v>0.6418843989039709</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7686299641766824</v>
+        <v>0.769154857015768</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>255</v>
@@ -5180,19 +5180,19 @@
         <v>270644</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>253824</v>
+        <v>253732</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>285206</v>
+        <v>285360</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7837407343642843</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7350349928901254</v>
+        <v>0.7347662119735994</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8259120930417568</v>
+        <v>0.8263573496050519</v>
       </c>
     </row>
     <row r="5">
@@ -5209,19 +5209,19 @@
         <v>19632</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>11991</v>
+        <v>11854</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>30456</v>
+        <v>29645</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1245756283919901</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.07608969756487152</v>
+        <v>0.07521800345411402</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1932517522225739</v>
+        <v>0.1881080475293147</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>53</v>
@@ -5230,19 +5230,19 @@
         <v>55047</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>43435</v>
+        <v>43336</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>69958</v>
+        <v>67228</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2932260871884151</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2313700358233172</v>
+        <v>0.230845142984232</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3726557010429807</v>
+        <v>0.3581156010960291</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>70</v>
@@ -5251,19 +5251,19 @@
         <v>74679</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>60117</v>
+        <v>59963</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>91499</v>
+        <v>91591</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2162592656357157</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1740879069582436</v>
+        <v>0.1736426503949483</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2649650071098749</v>
+        <v>0.2652337880264007</v>
       </c>
     </row>
     <row r="6">
@@ -5355,19 +5355,19 @@
         <v>281822</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>267457</v>
+        <v>265464</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>294205</v>
+        <v>293017</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8481497256106678</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8049160202709591</v>
+        <v>0.7989175283910883</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8854149961492928</v>
+        <v>0.8818397729994977</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>155</v>
@@ -5376,19 +5376,19 @@
         <v>164425</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>146165</v>
+        <v>145849</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>185037</v>
+        <v>186710</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.402684476309527</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.357965340976988</v>
+        <v>0.3571913944450213</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4531663197984799</v>
+        <v>0.4572629193803271</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>426</v>
@@ -5397,19 +5397,19 @@
         <v>446247</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>420006</v>
+        <v>415758</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>473477</v>
+        <v>473201</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.6025476327935937</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5671161563223832</v>
+        <v>0.5613804136765763</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6393152857646888</v>
+        <v>0.6389427765282065</v>
       </c>
     </row>
     <row r="8">
@@ -5426,19 +5426,19 @@
         <v>50457</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>38074</v>
+        <v>39262</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>64822</v>
+        <v>66815</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1518502743893322</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1145850038507072</v>
+        <v>0.1181602270005023</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1950839797290406</v>
+        <v>0.2010824716089116</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>219</v>
@@ -5447,19 +5447,19 @@
         <v>243896</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>223284</v>
+        <v>221611</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>262156</v>
+        <v>262472</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.597315523690473</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5468336802015201</v>
+        <v>0.5427370806196729</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.642034659023012</v>
+        <v>0.6428086055549787</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>266</v>
@@ -5468,19 +5468,19 @@
         <v>294353</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>267123</v>
+        <v>267399</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>320594</v>
+        <v>324842</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3974523672064064</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3606847142353112</v>
+        <v>0.3610572234717934</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4328838436776168</v>
+        <v>0.4386195863234237</v>
       </c>
     </row>
     <row r="9">
@@ -5572,19 +5572,19 @@
         <v>166264</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>155770</v>
+        <v>156292</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>174197</v>
+        <v>174450</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.865141471895908</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8105357738122025</v>
+        <v>0.8132524403199605</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9064226572666431</v>
+        <v>0.9077396317654816</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>165</v>
@@ -5593,19 +5593,19 @@
         <v>167354</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>151268</v>
+        <v>152531</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>181442</v>
+        <v>182479</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6726604032444001</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6080034655490165</v>
+        <v>0.6130798365131014</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7292854901964557</v>
+        <v>0.7334555071146164</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>341</v>
@@ -5614,19 +5614,19 @@
         <v>333618</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>316255</v>
+        <v>313096</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>351326</v>
+        <v>351063</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7565454130725353</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7171723313216067</v>
+        <v>0.7100093878442374</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7967034737839332</v>
+        <v>0.7961056362375983</v>
       </c>
     </row>
     <row r="11">
@@ -5643,19 +5643,19 @@
         <v>25917</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>17984</v>
+        <v>17731</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>36411</v>
+        <v>35889</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.134858528104092</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.09357734273335699</v>
+        <v>0.09226036823451854</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1894642261877974</v>
+        <v>0.1867475596800397</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>78</v>
@@ -5664,19 +5664,19 @@
         <v>81440</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>67352</v>
+        <v>66315</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>97526</v>
+        <v>96263</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3273395967555999</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2707145098035443</v>
+        <v>0.2665444928853836</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3919965344509834</v>
+        <v>0.3869201634868984</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>105</v>
@@ -5685,19 +5685,19 @@
         <v>107357</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>89649</v>
+        <v>89912</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>124720</v>
+        <v>127879</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2434545869274647</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2032965262160667</v>
+        <v>0.2038943637624017</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2828276686783933</v>
+        <v>0.2899906121557626</v>
       </c>
     </row>
     <row r="12">
@@ -5789,19 +5789,19 @@
         <v>216507</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>202122</v>
+        <v>204015</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>227201</v>
+        <v>227705</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.8398783813457106</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7840736570836415</v>
+        <v>0.7914203262942869</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8813634607689982</v>
+        <v>0.8833188805858095</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>177</v>
@@ -5810,19 +5810,19 @@
         <v>193378</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>177464</v>
+        <v>175941</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>211809</v>
+        <v>211297</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6331475396650146</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5810416355544127</v>
+        <v>0.5760556036037127</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6934907558163728</v>
+        <v>0.6918162562507126</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>388</v>
@@ -5831,19 +5831,19 @@
         <v>409886</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>388187</v>
+        <v>387346</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>431130</v>
+        <v>432209</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.7277695443072473</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.689243447693213</v>
+        <v>0.6877486804617162</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7654890300098047</v>
+        <v>0.7674047980166856</v>
       </c>
     </row>
     <row r="14">
@@ -5860,19 +5860,19 @@
         <v>41277</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>30583</v>
+        <v>30079</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>55662</v>
+        <v>53769</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1601216186542894</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1186365392310018</v>
+        <v>0.1166811194141904</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2159263429163585</v>
+        <v>0.208579673705713</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>102</v>
@@ -5881,19 +5881,19 @@
         <v>112046</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>93615</v>
+        <v>94127</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>127960</v>
+        <v>129483</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3668524603349854</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3065092441836272</v>
+        <v>0.3081837437492875</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4189583644455873</v>
+        <v>0.4239443963962876</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>141</v>
@@ -5902,19 +5902,19 @@
         <v>153322</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>132078</v>
+        <v>130999</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>175021</v>
+        <v>175862</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2722304556927527</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2345109699901954</v>
+        <v>0.2325952019833144</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.310756552306787</v>
+        <v>0.312251319538284</v>
       </c>
     </row>
     <row r="15">
@@ -6006,19 +6006,19 @@
         <v>118345</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>110469</v>
+        <v>110899</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>123489</v>
+        <v>124240</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.9083160484121424</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8478656387925497</v>
+        <v>0.8511608390617142</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9477965071226491</v>
+        <v>0.9535596100386016</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>110</v>
@@ -6027,19 +6027,19 @@
         <v>108644</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>95870</v>
+        <v>96627</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>119569</v>
+        <v>118604</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6658397070243787</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5875476668860736</v>
+        <v>0.5921885127918082</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7327916933351108</v>
+        <v>0.7268794837916245</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>231</v>
@@ -6048,19 +6048,19 @@
         <v>226990</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>211623</v>
+        <v>213442</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>241104</v>
+        <v>240325</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7734950400646903</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7211296241076723</v>
+        <v>0.7273275397358501</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8215912973071493</v>
+        <v>0.8189354996443862</v>
       </c>
     </row>
     <row r="17">
@@ -6077,19 +6077,19 @@
         <v>11946</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>6802</v>
+        <v>6051</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>19822</v>
+        <v>19392</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.0916839515878576</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05220349287735095</v>
+        <v>0.0464403899613984</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1521343612074499</v>
+        <v>0.1488391609382858</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>54</v>
@@ -6098,19 +6098,19 @@
         <v>54525</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>43600</v>
+        <v>44565</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>67299</v>
+        <v>66542</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3341602929756213</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.267208306664889</v>
+        <v>0.2731205162083757</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4124523331139263</v>
+        <v>0.407811487208192</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>66</v>
@@ -6119,19 +6119,19 @@
         <v>66470</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>52356</v>
+        <v>53135</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>81837</v>
+        <v>80018</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2265049599353097</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1784087026928507</v>
+        <v>0.1810645003556139</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2788703758923278</v>
+        <v>0.27267246026415</v>
       </c>
     </row>
     <row r="18">
@@ -6223,19 +6223,19 @@
         <v>128297</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>118362</v>
+        <v>119335</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>136521</v>
+        <v>137227</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.8244176348057245</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.7605812373378774</v>
+        <v>0.7668278587007672</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.877266489846937</v>
+        <v>0.8818056966315878</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>78</v>
@@ -6244,19 +6244,19 @@
         <v>81361</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>67683</v>
+        <v>67773</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>96340</v>
+        <v>95179</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4118557286938593</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3426163322820182</v>
+        <v>0.3430738506214854</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.487679016549379</v>
+        <v>0.4818066046497745</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>206</v>
@@ -6265,19 +6265,19 @@
         <v>209657</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>189990</v>
+        <v>191356</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>227864</v>
+        <v>228994</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5936482084753885</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5379596572652687</v>
+        <v>0.5418285315745782</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6452031698179768</v>
+        <v>0.6484010168183837</v>
       </c>
     </row>
     <row r="20">
@@ -6294,19 +6294,19 @@
         <v>27324</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>19100</v>
+        <v>18394</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>37259</v>
+        <v>36286</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1755823651942755</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1227335101530629</v>
+        <v>0.1181943033684121</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2394187626621226</v>
+        <v>0.2331721412992328</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>108</v>
@@ -6315,19 +6315,19 @@
         <v>116186</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>101207</v>
+        <v>102368</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>129864</v>
+        <v>129774</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5881442713061407</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.512320983450621</v>
+        <v>0.5181933953502255</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.657383667717982</v>
+        <v>0.6569261493785143</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>136</v>
@@ -6336,19 +6336,19 @@
         <v>143510</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>125303</v>
+        <v>124173</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>163177</v>
+        <v>161811</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4063517915246115</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3547968301820232</v>
+        <v>0.3515989831816164</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4620403427347313</v>
+        <v>0.4581714684254221</v>
       </c>
     </row>
     <row r="21">
@@ -6440,19 +6440,19 @@
         <v>238133</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>223343</v>
+        <v>223006</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>250355</v>
+        <v>250181</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8178156602540401</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7670205148782908</v>
+        <v>0.7658636580431107</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8597892249632081</v>
+        <v>0.8591911767009637</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>187</v>
@@ -6461,19 +6461,19 @@
         <v>206740</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>187127</v>
+        <v>186304</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>228048</v>
+        <v>226136</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5140882777992697</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4653181990597705</v>
+        <v>0.463271253380362</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5670727157861394</v>
+        <v>0.562320058377225</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>403</v>
@@ -6482,19 +6482,19 @@
         <v>444873</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>415410</v>
+        <v>415613</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>470553</v>
+        <v>469465</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6416463567726893</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5991505567972533</v>
+        <v>0.5994434248560179</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6786850755630192</v>
+        <v>0.677115012536869</v>
       </c>
     </row>
     <row r="23">
@@ -6511,19 +6511,19 @@
         <v>53049</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>40827</v>
+        <v>41001</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>67839</v>
+        <v>68176</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.18218433974596</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1402107750367919</v>
+        <v>0.1408088232990363</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2329794851217094</v>
+        <v>0.2341363419568894</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>181</v>
@@ -6532,19 +6532,19 @@
         <v>195409</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>174101</v>
+        <v>176013</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>215022</v>
+        <v>215845</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.4859117222007303</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.4329272842138605</v>
+        <v>0.437679941622775</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.5346818009402295</v>
+        <v>0.536728746619638</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>228</v>
@@ -6553,19 +6553,19 @@
         <v>248458</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>222778</v>
+        <v>223866</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>277921</v>
+        <v>277718</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3583536432273107</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3213149244369809</v>
+        <v>0.322884987463131</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.4008494432027469</v>
+        <v>0.4005565751439821</v>
       </c>
     </row>
     <row r="24">
@@ -6657,19 +6657,19 @@
         <v>391182</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>375048</v>
+        <v>376441</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>405276</v>
+        <v>405303</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.8717624763434537</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.8358070163228964</v>
+        <v>0.8389128537051819</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.9031724389990559</v>
+        <v>0.9032322113063774</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>324</v>
@@ -6678,19 +6678,19 @@
         <v>358769</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>335183</v>
+        <v>333001</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>384101</v>
+        <v>382665</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.6161816757286382</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.5756726365453109</v>
+        <v>0.5719244834339638</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.6596877218473508</v>
+        <v>0.6572226189816026</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>703</v>
@@ -6699,19 +6699,19 @@
         <v>749951</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>719280</v>
+        <v>719733</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>777652</v>
+        <v>780895</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.7274220410345912</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.6976727800548218</v>
+        <v>0.6981113160501536</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.7542912979021233</v>
+        <v>0.7574367236487671</v>
       </c>
     </row>
     <row r="26">
@@ -6728,19 +6728,19 @@
         <v>57543</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>43449</v>
+        <v>43422</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>73677</v>
+        <v>72284</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1282375236565463</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.09682756100094425</v>
+        <v>0.09676778869362256</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1641929836771035</v>
+        <v>0.161087146294818</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>197</v>
@@ -6749,19 +6749,19 @@
         <v>223477</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>198145</v>
+        <v>199581</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>247063</v>
+        <v>249245</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3838183242713618</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3403122781526492</v>
+        <v>0.3427773810183982</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4243273634546891</v>
+        <v>0.4280755165660364</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>252</v>
@@ -6770,19 +6770,19 @@
         <v>281020</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>253319</v>
+        <v>250076</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>311691</v>
+        <v>311238</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2725779589654088</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.245708702097877</v>
+        <v>0.2425632763512329</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3023272199451782</v>
+        <v>0.3018886839498461</v>
       </c>
     </row>
     <row r="27">
@@ -6874,19 +6874,19 @@
         <v>1678512</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1648956</v>
+        <v>1648399</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1708321</v>
+        <v>1708341</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.8539190143478689</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.8388829287349906</v>
+        <v>0.8385993598545703</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.8690839445767831</v>
+        <v>0.8690941393612609</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1322</v>
@@ -6895,19 +6895,19 @@
         <v>1413352</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1364351</v>
+        <v>1366277</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1467963</v>
+        <v>1461790</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.566388281703755</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.5467513282608926</v>
+        <v>0.547523142167446</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5882731127109038</v>
+        <v>0.585799288440092</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2953</v>
@@ -6916,19 +6916,19 @@
         <v>3091864</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3026486</v>
+        <v>3029063</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>3153826</v>
+        <v>3157396</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.6930824056308048</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.678426968065526</v>
+        <v>0.6790046583077708</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.7069718954513903</v>
+        <v>0.707772243935951</v>
       </c>
     </row>
     <row r="29">
@@ -6945,19 +6945,19 @@
         <v>287145</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>257336</v>
+        <v>257316</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>316701</v>
+        <v>317258</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1460809856521311</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1309160554232168</v>
+        <v>0.1309058606387391</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1611170712650093</v>
+        <v>0.1614006401454297</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>992</v>
@@ -6966,19 +6966,19 @@
         <v>1082025</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1027414</v>
+        <v>1033587</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1131026</v>
+        <v>1129100</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.433611718296245</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.411726887289096</v>
+        <v>0.4142007115599079</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.4532486717391074</v>
+        <v>0.452476857832554</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1264</v>
@@ -6987,19 +6987,19 @@
         <v>1369170</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1307208</v>
+        <v>1303638</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1434548</v>
+        <v>1431971</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3069175943691951</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2930281045486098</v>
+        <v>0.292227756064049</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3215730319344743</v>
+        <v>0.320995341692229</v>
       </c>
     </row>
     <row r="30">
@@ -7335,19 +7335,19 @@
         <v>103853</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>91857</v>
+        <v>90365</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>112481</v>
+        <v>111872</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.8911358660002918</v>
+        <v>0.8911358660002916</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7882004812413378</v>
+        <v>0.7753992775927963</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9651729594551099</v>
+        <v>0.9599415078052448</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>203</v>
@@ -7356,19 +7356,19 @@
         <v>115285</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>103008</v>
+        <v>104252</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>124366</v>
+        <v>124736</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.708967623254514</v>
+        <v>0.7089676232545139</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6334714188187009</v>
+        <v>0.6411177256591657</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7648182559383299</v>
+        <v>0.7670926756832266</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>326</v>
@@ -7377,19 +7377,19 @@
         <v>219138</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>203443</v>
+        <v>204435</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>232328</v>
+        <v>234118</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.785019816137302</v>
+        <v>0.7850198161373021</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.728793842519537</v>
+        <v>0.7323467028758186</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8322683740549082</v>
+        <v>0.8386802322227948</v>
       </c>
     </row>
     <row r="5">
@@ -7406,19 +7406,19 @@
         <v>12687</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4059</v>
+        <v>4668</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>24683</v>
+        <v>26175</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1088641339997084</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0348270405448901</v>
+        <v>0.04005849219475535</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2117995187586618</v>
+        <v>0.2246007224072047</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>77</v>
@@ -7427,19 +7427,19 @@
         <v>47324</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>38243</v>
+        <v>37873</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>59601</v>
+        <v>58357</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2910323767454862</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2351817440616701</v>
+        <v>0.2329073243167732</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.366528581181299</v>
+        <v>0.3588822743408343</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>83</v>
@@ -7448,19 +7448,19 @@
         <v>60012</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>46822</v>
+        <v>45032</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>75707</v>
+        <v>74715</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.2149801838626978</v>
+        <v>0.2149801838626979</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1677316259450917</v>
+        <v>0.1613197677772052</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2712061574804629</v>
+        <v>0.2676532971241815</v>
       </c>
     </row>
     <row r="6">
@@ -7552,19 +7552,19 @@
         <v>225055</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>201831</v>
+        <v>199702</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>241716</v>
+        <v>241291</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8602115061835827</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7714441224856587</v>
+        <v>0.7633090729513252</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9238960389029927</v>
+        <v>0.922272138993797</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>300</v>
@@ -7573,19 +7573,19 @@
         <v>215776</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>197993</v>
+        <v>196434</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>233029</v>
+        <v>232324</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.5850326353734282</v>
+        <v>0.5850326353734281</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5368194187764912</v>
+        <v>0.5325919113951474</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6318102084666718</v>
+        <v>0.6298991092147043</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>493</v>
@@ -7594,19 +7594,19 @@
         <v>440830</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>412085</v>
+        <v>410597</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>465744</v>
+        <v>466025</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.699226927571369</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6536317452553049</v>
+        <v>0.6512716858132462</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7387442170705225</v>
+        <v>0.739188962818092</v>
       </c>
     </row>
     <row r="8">
@@ -7623,19 +7623,19 @@
         <v>36572</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>19911</v>
+        <v>20336</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>59796</v>
+        <v>61925</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1397884938164173</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.07610396109700696</v>
+        <v>0.07772786100620255</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.228555877514341</v>
+        <v>0.2366909270486742</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>201</v>
@@ -7644,19 +7644,19 @@
         <v>153051</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>135798</v>
+        <v>136503</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>170834</v>
+        <v>172393</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4149673646265718</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3681897915333283</v>
+        <v>0.370100890785296</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4631805812235089</v>
+        <v>0.4674080886048527</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>212</v>
@@ -7665,19 +7665,19 @@
         <v>189624</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>164710</v>
+        <v>164429</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>218369</v>
+        <v>219857</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3007730724286312</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2612557829294774</v>
+        <v>0.2608110371819079</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3463682547446951</v>
+        <v>0.3487283141867537</v>
       </c>
     </row>
     <row r="9">
@@ -7769,19 +7769,19 @@
         <v>135593</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>122068</v>
+        <v>123904</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>145155</v>
+        <v>145606</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.844816501185724</v>
+        <v>0.8448165011857242</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7605480435229326</v>
+        <v>0.7719853786753867</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9043927017538504</v>
+        <v>0.907205305205281</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>274</v>
@@ -7790,19 +7790,19 @@
         <v>165330</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>152598</v>
+        <v>152842</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>176816</v>
+        <v>175947</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.7281068842246285</v>
+        <v>0.7281068842246284</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6720349075581489</v>
+        <v>0.6731109349385707</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7786920751077577</v>
+        <v>0.7748652623034409</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>462</v>
@@ -7811,19 +7811,19 @@
         <v>300923</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>283384</v>
+        <v>285057</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>316026</v>
+        <v>315382</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.7764388444262192</v>
+        <v>0.7764388444262191</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7311853703531005</v>
+        <v>0.7355012911419347</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8154077607592043</v>
+        <v>0.8137474002386696</v>
       </c>
     </row>
     <row r="11">
@@ -7840,19 +7840,19 @@
         <v>24907</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>15345</v>
+        <v>14894</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>38432</v>
+        <v>36596</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.155183498814276</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.09560729824614993</v>
+        <v>0.09279469479471887</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2394519564770674</v>
+        <v>0.2280146213246133</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>88</v>
@@ -7861,19 +7861,19 @@
         <v>61738</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>50252</v>
+        <v>51121</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>74470</v>
+        <v>74226</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2718931157753716</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2213079248922423</v>
+        <v>0.2251347376965591</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3279650924418513</v>
+        <v>0.3268890650614291</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>104</v>
@@ -7882,19 +7882,19 @@
         <v>86645</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>71542</v>
+        <v>72186</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>104184</v>
+        <v>102511</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2235611555737808</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.184592239240796</v>
+        <v>0.1862525997613303</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2688146296468995</v>
+        <v>0.2644987088580651</v>
       </c>
     </row>
     <row r="12">
@@ -7986,19 +7986,19 @@
         <v>139250</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>116520</v>
+        <v>116531</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>151856</v>
+        <v>150924</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.8785324664208625</v>
+        <v>0.8785324664208627</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7351256412719406</v>
+        <v>0.735199950936851</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9580609908589569</v>
+        <v>0.9521851694709768</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>229</v>
@@ -8007,19 +8007,19 @@
         <v>133539</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>118739</v>
+        <v>119558</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>147302</v>
+        <v>146975</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5628225279726333</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5004449958998457</v>
+        <v>0.5038981841253724</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6208284179537038</v>
+        <v>0.6194498861641485</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>387</v>
@@ -8028,19 +8028,19 @@
         <v>272789</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>249830</v>
+        <v>249675</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>293985</v>
+        <v>292285</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6892621003283008</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6312512620981109</v>
+        <v>0.6308576166207452</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7428189495795092</v>
+        <v>0.7385223939742642</v>
       </c>
     </row>
     <row r="14">
@@ -8057,19 +8057,19 @@
         <v>19253</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>6647</v>
+        <v>7579</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>41983</v>
+        <v>41972</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1214675335791376</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.04193900914104319</v>
+        <v>0.04781483052902333</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2648743587280599</v>
+        <v>0.264800049063149</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>163</v>
@@ -8078,19 +8078,19 @@
         <v>103728</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>89965</v>
+        <v>90292</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>118528</v>
+        <v>117709</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.4371774720273666</v>
+        <v>0.4371774720273667</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3791715820462962</v>
+        <v>0.3805501138358515</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4995550041001544</v>
+        <v>0.4961018158746276</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>169</v>
@@ -8099,19 +8099,19 @@
         <v>122981</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>101785</v>
+        <v>103485</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>145940</v>
+        <v>146095</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.310737899671699</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2571810504204908</v>
+        <v>0.2614776060257357</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3687487379018891</v>
+        <v>0.3691423833792533</v>
       </c>
     </row>
     <row r="15">
@@ -8203,19 +8203,19 @@
         <v>53421</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>44656</v>
+        <v>44339</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>60150</v>
+        <v>59925</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7940974759643226</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6638152006279902</v>
+        <v>0.6591048937222953</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8941282569613557</v>
+        <v>0.8907879601027098</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>141</v>
@@ -8224,19 +8224,19 @@
         <v>55530</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>48028</v>
+        <v>48066</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>63111</v>
+        <v>62385</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5263142298519686</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4552036975581861</v>
+        <v>0.4555657544039217</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5981605966908288</v>
+        <v>0.5912781374928252</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>236</v>
@@ -8245,19 +8245,19 @@
         <v>108951</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>97092</v>
+        <v>98462</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>118973</v>
+        <v>119573</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6305751183351622</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5619421394645059</v>
+        <v>0.5698680873289154</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6885811630521502</v>
+        <v>0.6920508672019408</v>
       </c>
     </row>
     <row r="17">
@@ -8274,19 +8274,19 @@
         <v>13851</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>7122</v>
+        <v>7347</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>22616</v>
+        <v>22933</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2059025240356773</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1058717430386442</v>
+        <v>0.1092120398972902</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3361847993720094</v>
+        <v>0.3408951062777046</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>106</v>
@@ -8295,19 +8295,19 @@
         <v>49978</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>42397</v>
+        <v>43123</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>57480</v>
+        <v>57442</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4736857701480314</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4018394033091715</v>
+        <v>0.4087218625071747</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5447963024418138</v>
+        <v>0.5444342455960784</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>117</v>
@@ -8316,19 +8316,19 @@
         <v>63829</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>53807</v>
+        <v>53207</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>75688</v>
+        <v>74318</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.3694248816648378</v>
+        <v>0.3694248816648377</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3114188369478498</v>
+        <v>0.3079491327980592</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4380578605354945</v>
+        <v>0.4301319126710846</v>
       </c>
     </row>
     <row r="18">
@@ -8420,19 +8420,19 @@
         <v>117978</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>108814</v>
+        <v>108361</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>124385</v>
+        <v>124656</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.8993503388048566</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.8294927769792294</v>
+        <v>0.8260424291453888</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.9481914185440105</v>
+        <v>0.9502603849660485</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>244</v>
@@ -8441,19 +8441,19 @@
         <v>117481</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>106793</v>
+        <v>107305</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>127588</v>
+        <v>127298</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.6782045122698442</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.6165043613423989</v>
+        <v>0.6194629703694416</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7365517538965203</v>
+        <v>0.7348816108249174</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>446</v>
@@ -8462,19 +8462,19 @@
         <v>235459</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>221037</v>
+        <v>221558</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>248683</v>
+        <v>246779</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.7735058859569698</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.7261268790263413</v>
+        <v>0.7278398540579536</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.8169488223107361</v>
+        <v>0.8106913770880665</v>
       </c>
     </row>
     <row r="20">
@@ -8491,19 +8491,19 @@
         <v>13203</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>6796</v>
+        <v>6525</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>22367</v>
+        <v>22820</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1006496611951434</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.05180858145598961</v>
+        <v>0.04973961503395152</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1705072230207703</v>
+        <v>0.1739575708546109</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>84</v>
@@ -8512,19 +8512,19 @@
         <v>55742</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>45635</v>
+        <v>45925</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>66430</v>
+        <v>65918</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3217954877301558</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2634482461034798</v>
+        <v>0.2651183891750827</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3834956386576015</v>
+        <v>0.3805370296305586</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>95</v>
@@ -8533,19 +8533,19 @@
         <v>68946</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>55722</v>
+        <v>57626</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>83368</v>
+        <v>82847</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2264941140430302</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1830511776892636</v>
+        <v>0.1893086229119335</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2738731209736584</v>
+        <v>0.2721601459420463</v>
       </c>
     </row>
     <row r="21">
@@ -8637,19 +8637,19 @@
         <v>272441</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>247110</v>
+        <v>246837</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>290271</v>
+        <v>292086</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.8455041728192042</v>
+        <v>0.8455041728192043</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7668906889240733</v>
+        <v>0.7660455496362394</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.90083858339831</v>
+        <v>0.9064726648899403</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>380</v>
@@ -8658,19 +8658,19 @@
         <v>276471</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>256800</v>
+        <v>258612</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>293449</v>
+        <v>293815</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7125042022783047</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6618088682364666</v>
+        <v>0.6664794535816327</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7562605068300545</v>
+        <v>0.7572035658456275</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>644</v>
@@ -8679,19 +8679,19 @@
         <v>548912</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>520705</v>
+        <v>520609</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>575064</v>
+        <v>574344</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7728429704032984</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7331294372124811</v>
+        <v>0.7329942628555884</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8096646738400791</v>
+        <v>0.8086510849913588</v>
       </c>
     </row>
     <row r="23">
@@ -8708,19 +8708,19 @@
         <v>49782</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>31952</v>
+        <v>30137</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>75113</v>
+        <v>75386</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1544958271807958</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.09916141660168998</v>
+        <v>0.09352733511005985</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2331093110759266</v>
+        <v>0.2339544503637607</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>117</v>
@@ -8729,19 +8729,19 @@
         <v>111556</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>94578</v>
+        <v>94212</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>131227</v>
+        <v>129415</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.2874957977216954</v>
+        <v>0.2874957977216953</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2437394931699454</v>
+        <v>0.2427964341543724</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3381911317635335</v>
+        <v>0.3335205464183673</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>134</v>
@@ -8750,19 +8750,19 @@
         <v>161338</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>135186</v>
+        <v>135906</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>189545</v>
+        <v>189641</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2271570295967014</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1903353261599211</v>
+        <v>0.1913489150086413</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.266870562787519</v>
+        <v>0.2670057371444116</v>
       </c>
     </row>
     <row r="24">
@@ -8854,19 +8854,19 @@
         <v>271181</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>246929</v>
+        <v>250029</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>288191</v>
+        <v>289974</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.8019490214312591</v>
+        <v>0.8019490214312593</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.7302296090962633</v>
+        <v>0.739397131328402</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.8522527514408529</v>
+        <v>0.8575262963101392</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>355</v>
@@ -8875,19 +8875,19 @@
         <v>248279</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>227568</v>
+        <v>228241</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>269281</v>
+        <v>267818</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.4873556522241602</v>
+        <v>0.4873556522241601</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4466998517921986</v>
+        <v>0.4480209884310445</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.528579403754441</v>
+        <v>0.525708781361409</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>695</v>
@@ -8896,19 +8896,19 @@
         <v>519460</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>487486</v>
+        <v>491787</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>547451</v>
+        <v>547421</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.6128644046585083</v>
+        <v>0.6128644046585084</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.5751413552987847</v>
+        <v>0.5802151763229287</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.6458879510205415</v>
+        <v>0.6458524196196629</v>
       </c>
     </row>
     <row r="26">
@@ -8925,19 +8925,19 @@
         <v>66971</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>49961</v>
+        <v>48178</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>91223</v>
+        <v>88123</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1980509785687408</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1477472485591472</v>
+        <v>0.1424737036898609</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2697703909037367</v>
+        <v>0.2606028686715972</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>323</v>
@@ -8946,19 +8946,19 @@
         <v>261163</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>240161</v>
+        <v>241624</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>281874</v>
+        <v>281201</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.5126443477758399</v>
+        <v>0.5126443477758398</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4714205962455588</v>
+        <v>0.474291218638591</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5533001482078014</v>
+        <v>0.5519790115689557</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>357</v>
@@ -8967,19 +8967,19 @@
         <v>328134</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>300143</v>
+        <v>300173</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>360108</v>
+        <v>355807</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3871355953414915</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3541120489794587</v>
+        <v>0.354147580380337</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4248586447012153</v>
+        <v>0.4197848236770713</v>
       </c>
     </row>
     <row r="27">
@@ -9071,19 +9071,19 @@
         <v>1318771</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1272793</v>
+        <v>1272396</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1356944</v>
+        <v>1359743</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.8475399129688826</v>
+        <v>0.847539912968883</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.8179909819706654</v>
+        <v>0.8177355354606979</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.8720726019884938</v>
+        <v>0.8738711482612235</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2126</v>
@@ -9092,19 +9092,19 @@
         <v>1327691</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1289087</v>
+        <v>1281015</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1371314</v>
+        <v>1366246</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.6112837824461963</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.5935098840975894</v>
+        <v>0.5897934284343609</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.6313683913354148</v>
+        <v>0.6290347142224023</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3689</v>
@@ -9113,19 +9113,19 @@
         <v>2646462</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2582584</v>
+        <v>2587582</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>2704108</v>
+        <v>2707090</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.709893520724292</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.69275872572611</v>
+        <v>0.694099230163026</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.7253565137661966</v>
+        <v>0.7261562658629979</v>
       </c>
     </row>
     <row r="29">
@@ -9142,19 +9142,19 @@
         <v>237228</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>199055</v>
+        <v>196256</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>283206</v>
+        <v>283603</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1524600870311171</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1279273980115063</v>
+        <v>0.1261288517387766</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1820090180293346</v>
+        <v>0.1822644645393024</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1159</v>
@@ -9163,19 +9163,19 @@
         <v>844281</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>800658</v>
+        <v>805726</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>882885</v>
+        <v>890957</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3887162175538038</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3686316086645852</v>
+        <v>0.3709652857775975</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.4064901159024106</v>
+        <v>0.4102065715656389</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1271</v>
@@ -9184,19 +9184,19 @@
         <v>1081509</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1023863</v>
+        <v>1020881</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1145387</v>
+        <v>1140389</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.290106479275708</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2746434862338034</v>
+        <v>0.2738437341370021</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3072412742738901</v>
+        <v>0.305900769836974</v>
       </c>
     </row>
     <row r="30">
